--- a/Experiments/230216_mod2/230216_plasmids_sp_updated.xlsx
+++ b/Experiments/230216_mod2/230216_plasmids_sp_updated.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26.3,</t>
+          <t>25.05,</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>33.125,</t>
+          <t>31.875,</t>
         </is>
       </c>
     </row>
